--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltf</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.528636280192144</v>
+        <v>0.1161303333333333</v>
       </c>
       <c r="H2">
-        <v>0.528636280192144</v>
+        <v>0.348391</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1456603163009351</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1473869862897794</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.964848167420845</v>
+        <v>0.440022</v>
       </c>
       <c r="N2">
-        <v>0.964848167420845</v>
+        <v>1.320066</v>
       </c>
       <c r="O2">
-        <v>0.3746923714584219</v>
+        <v>0.1189966702429989</v>
       </c>
       <c r="P2">
-        <v>0.3746923714584219</v>
+        <v>0.1322791081907838</v>
       </c>
       <c r="Q2">
-        <v>0.5100537461755625</v>
+        <v>0.051099901534</v>
       </c>
       <c r="R2">
-        <v>0.5100537461755625</v>
+        <v>0.459899113806</v>
       </c>
       <c r="S2">
-        <v>0.3746923714584219</v>
+        <v>0.01733309262635329</v>
       </c>
       <c r="T2">
-        <v>0.3746923714584219</v>
+        <v>0.01949621910533931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.528636280192144</v>
+        <v>0.1161303333333333</v>
       </c>
       <c r="H3">
-        <v>0.528636280192144</v>
+        <v>0.348391</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1456603163009351</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1473869862897794</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.720338947388443</v>
+        <v>0.9983456666666667</v>
       </c>
       <c r="N3">
-        <v>0.720338947388443</v>
+        <v>2.995037</v>
       </c>
       <c r="O3">
-        <v>0.2797388413685118</v>
+        <v>0.2699860690712287</v>
       </c>
       <c r="P3">
-        <v>0.2797388413685118</v>
+        <v>0.300121981293663</v>
       </c>
       <c r="Q3">
-        <v>0.380797301624951</v>
+        <v>0.1159382150518889</v>
       </c>
       <c r="R3">
-        <v>0.380797301624951</v>
+        <v>1.043443935467</v>
       </c>
       <c r="S3">
-        <v>0.2797388413685118</v>
+        <v>0.03932625621776129</v>
       </c>
       <c r="T3">
-        <v>0.2797388413685118</v>
+        <v>0.04423407434219056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,1115 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1161303333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.348391</v>
+      </c>
+      <c r="I4">
+        <v>0.1456603163009351</v>
+      </c>
+      <c r="J4">
+        <v>0.1473869862897794</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.8428506666666667</v>
+      </c>
+      <c r="N4">
+        <v>2.528552</v>
+      </c>
+      <c r="O4">
+        <v>0.227935018806844</v>
+      </c>
+      <c r="P4">
+        <v>0.2533771823333249</v>
+      </c>
+      <c r="Q4">
+        <v>0.09788052887022224</v>
+      </c>
+      <c r="R4">
+        <v>0.8809247598320001</v>
+      </c>
+      <c r="S4">
+        <v>0.0332010869354645</v>
+      </c>
+      <c r="T4">
+        <v>0.0373444992987047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.528636280192144</v>
-      </c>
-      <c r="H4">
-        <v>0.528636280192144</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.889853747819831</v>
-      </c>
-      <c r="N4">
-        <v>0.889853747819831</v>
-      </c>
-      <c r="O4">
-        <v>0.3455687871730663</v>
-      </c>
-      <c r="P4">
-        <v>0.3455687871730663</v>
-      </c>
-      <c r="Q4">
-        <v>0.4704089751625136</v>
-      </c>
-      <c r="R4">
-        <v>0.4704089751625136</v>
-      </c>
-      <c r="S4">
-        <v>0.3455687871730663</v>
-      </c>
-      <c r="T4">
-        <v>0.3455687871730663</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1161303333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.348391</v>
+      </c>
+      <c r="I5">
+        <v>0.1456603163009351</v>
+      </c>
+      <c r="J5">
+        <v>0.1473869862897794</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.302646</v>
+      </c>
+      <c r="N5">
+        <v>0.907938</v>
+      </c>
+      <c r="O5">
+        <v>0.08184560377063566</v>
+      </c>
+      <c r="P5">
+        <v>0.09098123043281464</v>
+      </c>
+      <c r="Q5">
+        <v>0.035146380862</v>
+      </c>
+      <c r="R5">
+        <v>0.316317427758</v>
+      </c>
+      <c r="S5">
+        <v>0.0119216565330718</v>
+      </c>
+      <c r="T5">
+        <v>0.01340944936242852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1161303333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.348391</v>
+      </c>
+      <c r="I6">
+        <v>0.1456603163009351</v>
+      </c>
+      <c r="J6">
+        <v>0.1473869862897794</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.113903</v>
+      </c>
+      <c r="N6">
+        <v>2.227806</v>
+      </c>
+      <c r="O6">
+        <v>0.3012366381082927</v>
+      </c>
+      <c r="P6">
+        <v>0.2232404977494136</v>
+      </c>
+      <c r="Q6">
+        <v>0.129357926691</v>
+      </c>
+      <c r="R6">
+        <v>0.7761475601460001</v>
+      </c>
+      <c r="S6">
+        <v>0.04387822398828424</v>
+      </c>
+      <c r="T6">
+        <v>0.03290274418111636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.107901</v>
+      </c>
+      <c r="H7">
+        <v>0.323703</v>
+      </c>
+      <c r="I7">
+        <v>0.1353384024488624</v>
+      </c>
+      <c r="J7">
+        <v>0.1369427155780731</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.440022</v>
+      </c>
+      <c r="N7">
+        <v>1.320066</v>
+      </c>
+      <c r="O7">
+        <v>0.1189966702429989</v>
+      </c>
+      <c r="P7">
+        <v>0.1322791081907838</v>
+      </c>
+      <c r="Q7">
+        <v>0.047478813822</v>
+      </c>
+      <c r="R7">
+        <v>0.427309324398</v>
+      </c>
+      <c r="S7">
+        <v>0.01610481924742154</v>
+      </c>
+      <c r="T7">
+        <v>0.01811466028989167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.107901</v>
+      </c>
+      <c r="H8">
+        <v>0.323703</v>
+      </c>
+      <c r="I8">
+        <v>0.1353384024488624</v>
+      </c>
+      <c r="J8">
+        <v>0.1369427155780731</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9983456666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.995037</v>
+      </c>
+      <c r="O8">
+        <v>0.2699860690712287</v>
+      </c>
+      <c r="P8">
+        <v>0.300121981293663</v>
+      </c>
+      <c r="Q8">
+        <v>0.107722495779</v>
+      </c>
+      <c r="R8">
+        <v>0.969502462011</v>
+      </c>
+      <c r="S8">
+        <v>0.03653948327154831</v>
+      </c>
+      <c r="T8">
+        <v>0.04109951912302588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.107901</v>
+      </c>
+      <c r="H9">
+        <v>0.323703</v>
+      </c>
+      <c r="I9">
+        <v>0.1353384024488624</v>
+      </c>
+      <c r="J9">
+        <v>0.1369427155780731</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8428506666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.528552</v>
+      </c>
+      <c r="O9">
+        <v>0.227935018806844</v>
+      </c>
+      <c r="P9">
+        <v>0.2533771823333249</v>
+      </c>
+      <c r="Q9">
+        <v>0.09094442978400001</v>
+      </c>
+      <c r="R9">
+        <v>0.8184998680560002</v>
+      </c>
+      <c r="S9">
+        <v>0.03084836130746967</v>
+      </c>
+      <c r="T9">
+        <v>0.03469815941424609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.107901</v>
+      </c>
+      <c r="H10">
+        <v>0.323703</v>
+      </c>
+      <c r="I10">
+        <v>0.1353384024488624</v>
+      </c>
+      <c r="J10">
+        <v>0.1369427155780731</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.302646</v>
+      </c>
+      <c r="N10">
+        <v>0.907938</v>
+      </c>
+      <c r="O10">
+        <v>0.08184560377063566</v>
+      </c>
+      <c r="P10">
+        <v>0.09098123043281464</v>
+      </c>
+      <c r="Q10">
+        <v>0.032655806046</v>
+      </c>
+      <c r="R10">
+        <v>0.293902254414</v>
+      </c>
+      <c r="S10">
+        <v>0.01107685326178041</v>
+      </c>
+      <c r="T10">
+        <v>0.01245921676210407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.107901</v>
+      </c>
+      <c r="H11">
+        <v>0.323703</v>
+      </c>
+      <c r="I11">
+        <v>0.1353384024488624</v>
+      </c>
+      <c r="J11">
+        <v>0.1369427155780731</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.113903</v>
+      </c>
+      <c r="N11">
+        <v>2.227806</v>
+      </c>
+      <c r="O11">
+        <v>0.3012366381082927</v>
+      </c>
+      <c r="P11">
+        <v>0.2232404977494136</v>
+      </c>
+      <c r="Q11">
+        <v>0.120191247603</v>
+      </c>
+      <c r="R11">
+        <v>0.7211474856180001</v>
+      </c>
+      <c r="S11">
+        <v>0.04076888536064242</v>
+      </c>
+      <c r="T11">
+        <v>0.03057115998880542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5452163333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.635649</v>
+      </c>
+      <c r="I12">
+        <v>0.6838556412114786</v>
+      </c>
+      <c r="J12">
+        <v>0.6919621251349531</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.440022</v>
+      </c>
+      <c r="N12">
+        <v>1.320066</v>
+      </c>
+      <c r="O12">
+        <v>0.1189966702429989</v>
+      </c>
+      <c r="P12">
+        <v>0.1322791081907838</v>
+      </c>
+      <c r="Q12">
+        <v>0.239907181426</v>
+      </c>
+      <c r="R12">
+        <v>2.159164632834</v>
+      </c>
+      <c r="S12">
+        <v>0.08137654423105686</v>
+      </c>
+      <c r="T12">
+        <v>0.09153213281465115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5452163333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.635649</v>
+      </c>
+      <c r="I13">
+        <v>0.6838556412114786</v>
+      </c>
+      <c r="J13">
+        <v>0.6919621251349531</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9983456666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.995037</v>
+      </c>
+      <c r="O13">
+        <v>0.2699860690712287</v>
+      </c>
+      <c r="P13">
+        <v>0.300121981293663</v>
+      </c>
+      <c r="Q13">
+        <v>0.5443143637792222</v>
+      </c>
+      <c r="R13">
+        <v>4.898829274013</v>
+      </c>
+      <c r="S13">
+        <v>0.1846314963828717</v>
+      </c>
+      <c r="T13">
+        <v>0.2076730439756757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5452163333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.635649</v>
+      </c>
+      <c r="I14">
+        <v>0.6838556412114786</v>
+      </c>
+      <c r="J14">
+        <v>0.6919621251349531</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8428506666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.528552</v>
+      </c>
+      <c r="O14">
+        <v>0.227935018806844</v>
+      </c>
+      <c r="P14">
+        <v>0.2533771823333249</v>
+      </c>
+      <c r="Q14">
+        <v>0.4595359500275556</v>
+      </c>
+      <c r="R14">
+        <v>4.135823550248</v>
+      </c>
+      <c r="S14">
+        <v>0.1558746484407047</v>
+      </c>
+      <c r="T14">
+        <v>0.175327413548074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5452163333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.635649</v>
+      </c>
+      <c r="I15">
+        <v>0.6838556412114786</v>
+      </c>
+      <c r="J15">
+        <v>0.6919621251349531</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.302646</v>
+      </c>
+      <c r="N15">
+        <v>0.907938</v>
+      </c>
+      <c r="O15">
+        <v>0.08184560377063566</v>
+      </c>
+      <c r="P15">
+        <v>0.09098123043281464</v>
+      </c>
+      <c r="Q15">
+        <v>0.165007542418</v>
+      </c>
+      <c r="R15">
+        <v>1.485067881762</v>
+      </c>
+      <c r="S15">
+        <v>0.05597057784690865</v>
+      </c>
+      <c r="T15">
+        <v>0.06295556555768329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5452163333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.635649</v>
+      </c>
+      <c r="I16">
+        <v>0.6838556412114786</v>
+      </c>
+      <c r="J16">
+        <v>0.6919621251349531</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.113903</v>
+      </c>
+      <c r="N16">
+        <v>2.227806</v>
+      </c>
+      <c r="O16">
+        <v>0.3012366381082927</v>
+      </c>
+      <c r="P16">
+        <v>0.2232404977494136</v>
+      </c>
+      <c r="Q16">
+        <v>0.607318109349</v>
+      </c>
+      <c r="R16">
+        <v>3.643908656094</v>
+      </c>
+      <c r="S16">
+        <v>0.2060023743099366</v>
+      </c>
+      <c r="T16">
+        <v>0.1544739692388689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0280205</v>
+      </c>
+      <c r="H17">
+        <v>0.056041</v>
+      </c>
+      <c r="I17">
+        <v>0.0351456400387239</v>
+      </c>
+      <c r="J17">
+        <v>0.02370817299719433</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.440022</v>
+      </c>
+      <c r="N17">
+        <v>1.320066</v>
+      </c>
+      <c r="O17">
+        <v>0.1189966702429989</v>
+      </c>
+      <c r="P17">
+        <v>0.1322791081907838</v>
+      </c>
+      <c r="Q17">
+        <v>0.012329636451</v>
+      </c>
+      <c r="R17">
+        <v>0.073977818706</v>
+      </c>
+      <c r="S17">
+        <v>0.004182214138167165</v>
+      </c>
+      <c r="T17">
+        <v>0.003136095980901688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0280205</v>
+      </c>
+      <c r="H18">
+        <v>0.056041</v>
+      </c>
+      <c r="I18">
+        <v>0.0351456400387239</v>
+      </c>
+      <c r="J18">
+        <v>0.02370817299719433</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9983456666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.995037</v>
+      </c>
+      <c r="O18">
+        <v>0.2699860690712287</v>
+      </c>
+      <c r="P18">
+        <v>0.300121981293663</v>
+      </c>
+      <c r="Q18">
+        <v>0.02797414475283333</v>
+      </c>
+      <c r="R18">
+        <v>0.167844868517</v>
+      </c>
+      <c r="S18">
+        <v>0.009488833199047452</v>
+      </c>
+      <c r="T18">
+        <v>0.007115343852770883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0280205</v>
+      </c>
+      <c r="H19">
+        <v>0.056041</v>
+      </c>
+      <c r="I19">
+        <v>0.0351456400387239</v>
+      </c>
+      <c r="J19">
+        <v>0.02370817299719433</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8428506666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.528552</v>
+      </c>
+      <c r="O19">
+        <v>0.227935018806844</v>
+      </c>
+      <c r="P19">
+        <v>0.2533771823333249</v>
+      </c>
+      <c r="Q19">
+        <v>0.02361709710533334</v>
+      </c>
+      <c r="R19">
+        <v>0.141702582632</v>
+      </c>
+      <c r="S19">
+        <v>0.008010922123205101</v>
+      </c>
+      <c r="T19">
+        <v>0.006007110072300118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0280205</v>
+      </c>
+      <c r="H20">
+        <v>0.056041</v>
+      </c>
+      <c r="I20">
+        <v>0.0351456400387239</v>
+      </c>
+      <c r="J20">
+        <v>0.02370817299719433</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.302646</v>
+      </c>
+      <c r="N20">
+        <v>0.907938</v>
+      </c>
+      <c r="O20">
+        <v>0.08184560377063566</v>
+      </c>
+      <c r="P20">
+        <v>0.09098123043281464</v>
+      </c>
+      <c r="Q20">
+        <v>0.008480292243000001</v>
+      </c>
+      <c r="R20">
+        <v>0.050881753458</v>
+      </c>
+      <c r="S20">
+        <v>0.002876516128874784</v>
+      </c>
+      <c r="T20">
+        <v>0.002156998750598771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0280205</v>
+      </c>
+      <c r="H21">
+        <v>0.056041</v>
+      </c>
+      <c r="I21">
+        <v>0.0351456400387239</v>
+      </c>
+      <c r="J21">
+        <v>0.02370817299719433</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.113903</v>
+      </c>
+      <c r="N21">
+        <v>2.227806</v>
+      </c>
+      <c r="O21">
+        <v>0.3012366381082927</v>
+      </c>
+      <c r="P21">
+        <v>0.2232404977494136</v>
+      </c>
+      <c r="Q21">
+        <v>0.0312121190115</v>
+      </c>
+      <c r="R21">
+        <v>0.124848476046</v>
+      </c>
+      <c r="S21">
+        <v>0.01058715444942939</v>
+      </c>
+      <c r="T21">
+        <v>0.005292624340622869</v>
       </c>
     </row>
   </sheetData>
